--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.063913333333333</v>
+        <v>0.2379653333333333</v>
       </c>
       <c r="H2">
-        <v>6.19174</v>
+        <v>0.713896</v>
       </c>
       <c r="I2">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="J2">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.932884333333333</v>
+        <v>1.675840666666667</v>
       </c>
       <c r="N2">
-        <v>8.798653</v>
+        <v>5.027522</v>
       </c>
       <c r="O2">
-        <v>0.1407623943304514</v>
+        <v>0.03808750486214892</v>
       </c>
       <c r="P2">
-        <v>0.1407623943304514</v>
+        <v>0.03808750486214892</v>
       </c>
       <c r="Q2">
-        <v>6.053219080691111</v>
+        <v>0.3987919828568889</v>
       </c>
       <c r="R2">
-        <v>54.47897172622</v>
+        <v>3.589127845712</v>
       </c>
       <c r="S2">
-        <v>0.0004729890102124651</v>
+        <v>1.523825286150192E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004729890102124651</v>
+        <v>1.523825286150192E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.063913333333333</v>
+        <v>0.2379653333333333</v>
       </c>
       <c r="H3">
-        <v>6.19174</v>
+        <v>0.713896</v>
       </c>
       <c r="I3">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="J3">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.677279</v>
       </c>
       <c r="O3">
-        <v>0.2028133335449359</v>
+        <v>0.096040539564286</v>
       </c>
       <c r="P3">
-        <v>0.2028133335449359</v>
+        <v>0.09604053956428601</v>
       </c>
       <c r="Q3">
-        <v>8.721601719495556</v>
+        <v>1.005584307664889</v>
       </c>
       <c r="R3">
-        <v>78.49441547546</v>
+        <v>9.050258768984</v>
       </c>
       <c r="S3">
-        <v>0.0006814922291397637</v>
+        <v>3.842441325921761E-05</v>
       </c>
       <c r="T3">
-        <v>0.0006814922291397637</v>
+        <v>3.842441325921761E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.063913333333333</v>
+        <v>0.2379653333333333</v>
       </c>
       <c r="H4">
-        <v>6.19174</v>
+        <v>0.713896</v>
       </c>
       <c r="I4">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="J4">
-        <v>0.003360194407478493</v>
+        <v>0.0004000853538884766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.67706533333333</v>
+        <v>38.098149</v>
       </c>
       <c r="N4">
-        <v>41.031196</v>
+        <v>114.294447</v>
       </c>
       <c r="O4">
-        <v>0.6564242721246127</v>
+        <v>0.8658719555735651</v>
       </c>
       <c r="P4">
-        <v>0.6564242721246127</v>
+        <v>0.865871955573565</v>
       </c>
       <c r="Q4">
-        <v>28.22827750233778</v>
+        <v>9.066038726167999</v>
       </c>
       <c r="R4">
-        <v>254.05449752104</v>
+        <v>81.594348535512</v>
       </c>
       <c r="S4">
-        <v>0.002205713168126264</v>
+        <v>0.0003464226877677571</v>
       </c>
       <c r="T4">
-        <v>0.002205713168126264</v>
+        <v>0.0003464226877677571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1756.263122</v>
       </c>
       <c r="I5">
-        <v>0.9531061576560254</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="J5">
-        <v>0.9531061576560252</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.932884333333333</v>
+        <v>1.675840666666667</v>
       </c>
       <c r="N5">
-        <v>8.798653</v>
+        <v>5.027522</v>
       </c>
       <c r="O5">
-        <v>0.1407623943304514</v>
+        <v>0.03808750486214892</v>
       </c>
       <c r="P5">
-        <v>0.1407623943304514</v>
+        <v>0.03808750486214892</v>
       </c>
       <c r="Q5">
-        <v>1716.972198574963</v>
+        <v>981.0723870715206</v>
       </c>
       <c r="R5">
-        <v>15452.74978717467</v>
+        <v>8829.651483643685</v>
       </c>
       <c r="S5">
-        <v>0.1341615048027588</v>
+        <v>0.03748778749897296</v>
       </c>
       <c r="T5">
-        <v>0.1341615048027588</v>
+        <v>0.03748778749897296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1756.263122</v>
       </c>
       <c r="I6">
-        <v>0.9531061576560254</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="J6">
-        <v>0.9531061576560252</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.677279</v>
       </c>
       <c r="O6">
-        <v>0.2028133335449359</v>
+        <v>0.096040539564286</v>
       </c>
       <c r="P6">
-        <v>0.2028133335449359</v>
+        <v>0.09604053956428601</v>
       </c>
       <c r="Q6">
         <v>2473.848621667227</v>
@@ -818,10 +818,10 @@
         <v>22264.63759500504</v>
       </c>
       <c r="S6">
-        <v>0.1933026370564237</v>
+        <v>0.09452830663241105</v>
       </c>
       <c r="T6">
-        <v>0.1933026370564237</v>
+        <v>0.09452830663241106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1756.263122</v>
       </c>
       <c r="I7">
-        <v>0.9531061576560254</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="J7">
-        <v>0.9531061576560252</v>
+        <v>0.9842542228653065</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.67706533333333</v>
+        <v>38.098149</v>
       </c>
       <c r="N7">
-        <v>41.031196</v>
+        <v>114.294447</v>
       </c>
       <c r="O7">
-        <v>0.6564242721246127</v>
+        <v>0.8658719555735651</v>
       </c>
       <c r="P7">
-        <v>0.6564242721246127</v>
+        <v>0.865871955573565</v>
       </c>
       <c r="Q7">
-        <v>8006.841820705991</v>
+        <v>22303.45803505373</v>
       </c>
       <c r="R7">
-        <v>72061.57638635392</v>
+        <v>200731.1223154835</v>
       </c>
       <c r="S7">
-        <v>0.6256420157968429</v>
+        <v>0.8522381287339226</v>
       </c>
       <c r="T7">
-        <v>0.6256420157968428</v>
+        <v>0.8522381287339225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.739428</v>
+        <v>9.127409</v>
       </c>
       <c r="H8">
-        <v>80.218284</v>
+        <v>27.382227</v>
       </c>
       <c r="I8">
-        <v>0.04353364793649628</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="J8">
-        <v>0.04353364793649627</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.932884333333333</v>
+        <v>1.675840666666667</v>
       </c>
       <c r="N8">
-        <v>8.798653</v>
+        <v>5.027522</v>
       </c>
       <c r="O8">
-        <v>0.1407623943304514</v>
+        <v>0.03808750486214892</v>
       </c>
       <c r="P8">
-        <v>0.1407623943304514</v>
+        <v>0.03808750486214892</v>
       </c>
       <c r="Q8">
-        <v>78.42364946349467</v>
+        <v>15.29608318349933</v>
       </c>
       <c r="R8">
-        <v>705.812845171452</v>
+        <v>137.664748651494</v>
       </c>
       <c r="S8">
-        <v>0.006127900517480131</v>
+        <v>0.0005844791103144509</v>
       </c>
       <c r="T8">
-        <v>0.00612790051748013</v>
+        <v>0.0005844791103144509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.739428</v>
+        <v>9.127409</v>
       </c>
       <c r="H9">
-        <v>80.218284</v>
+        <v>27.382227</v>
       </c>
       <c r="I9">
-        <v>0.04353364793649628</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="J9">
-        <v>0.04353364793649627</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.677279</v>
       </c>
       <c r="O9">
-        <v>0.2028133335449359</v>
+        <v>0.096040539564286</v>
       </c>
       <c r="P9">
-        <v>0.2028133335449359</v>
+        <v>0.09604053956428601</v>
       </c>
       <c r="Q9">
-        <v>112.9943963521373</v>
+        <v>38.57023681337034</v>
       </c>
       <c r="R9">
-        <v>1016.949567169236</v>
+        <v>347.132131320333</v>
       </c>
       <c r="S9">
-        <v>0.008829204259372428</v>
+        <v>0.001473808518615746</v>
       </c>
       <c r="T9">
-        <v>0.008829204259372427</v>
+        <v>0.001473808518615746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.739428</v>
+        <v>9.127409</v>
       </c>
       <c r="H10">
-        <v>80.218284</v>
+        <v>27.382227</v>
       </c>
       <c r="I10">
-        <v>0.04353364793649628</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="J10">
-        <v>0.04353364793649627</v>
+        <v>0.01534569178080505</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.67706533333333</v>
+        <v>38.098149</v>
       </c>
       <c r="N10">
-        <v>41.031196</v>
+        <v>114.294447</v>
       </c>
       <c r="O10">
-        <v>0.6564242721246127</v>
+        <v>0.8658719555735651</v>
       </c>
       <c r="P10">
-        <v>0.6564242721246127</v>
+        <v>0.865871955573565</v>
       </c>
       <c r="Q10">
-        <v>365.7169037319626</v>
+        <v>347.737388065941</v>
       </c>
       <c r="R10">
-        <v>3291.452133587664</v>
+        <v>3129.636492593469</v>
       </c>
       <c r="S10">
-        <v>0.02857654315964372</v>
+        <v>0.01328740415187485</v>
       </c>
       <c r="T10">
-        <v>0.02857654315964371</v>
+        <v>0.01328740415187485</v>
       </c>
     </row>
   </sheetData>
